--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P22_trail1 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P22_trail1 Features.xlsx
@@ -3947,7 +3947,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.317528840493325</v>
+        <v>1.319470218916369</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.295291071445323</v>
@@ -4036,7 +4036,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.331578774962442</v>
+        <v>1.333831791679115</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.203063915263432</v>
@@ -4125,7 +4125,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.345326772038167</v>
+        <v>1.350160123440683</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.324621258420383</v>
@@ -4214,7 +4214,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.373930261087843</v>
+        <v>1.376841818998702</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.34411726127271</v>
@@ -4303,7 +4303,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.370600693996759</v>
+        <v>1.369739833223416</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.179128784636615</v>
@@ -4392,7 +4392,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.376403914376573</v>
+        <v>1.377097893774323</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.256968646033559</v>
@@ -4481,7 +4481,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.400086486938132</v>
+        <v>1.391159921158239</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.356372778297263</v>
@@ -4570,7 +4570,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.432927112156592</v>
+        <v>1.416723751012248</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.194949607062397</v>
@@ -4659,7 +4659,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.437598703076054</v>
+        <v>1.41356543038117</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.244094646674776</v>
@@ -4748,7 +4748,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.429187962615183</v>
+        <v>1.405569279187842</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.336284694571568</v>
@@ -4837,7 +4837,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.458547335335152</v>
+        <v>1.430083872709661</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.959081589053385</v>
@@ -4926,7 +4926,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.453075473770265</v>
+        <v>1.421285668125943</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.243007850924191</v>
@@ -5015,7 +5015,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.45147995740957</v>
+        <v>1.418479447332094</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.392776419975505</v>
@@ -5104,7 +5104,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.446257956598933</v>
+        <v>1.414787283625557</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.456466245049476</v>
@@ -5193,7 +5193,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.446365041246586</v>
+        <v>1.411055591249013</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.296446677175429</v>
@@ -5282,7 +5282,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.406241814344874</v>
+        <v>1.377882048558204</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.348573104616929</v>
@@ -5371,7 +5371,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.421397304499403</v>
+        <v>1.388262034656709</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.292061588439131</v>
@@ -5460,7 +5460,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.405222914887215</v>
+        <v>1.373601222123107</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.30392588288967</v>
@@ -5549,7 +5549,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.379811400439643</v>
+        <v>1.350543987048473</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.374093383600619</v>
@@ -5638,7 +5638,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.381410371475472</v>
+        <v>1.348924772997514</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.116457659221159</v>
@@ -5727,7 +5727,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.373019123502667</v>
+        <v>1.345259482165385</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.281270897311368</v>
@@ -5816,7 +5816,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.364850715878342</v>
+        <v>1.341718906100671</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.297429801744274</v>
@@ -5905,7 +5905,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.334795999844343</v>
+        <v>1.31683368424733</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.313934243044947</v>
@@ -5994,7 +5994,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.310655264277824</v>
+        <v>1.298580239325032</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.414581403916908</v>
@@ -6083,7 +6083,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.323434559664356</v>
+        <v>1.307821156205626</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.419281047809914</v>
@@ -6172,7 +6172,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.296263488717116</v>
+        <v>1.27991366947307</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.309228047872041</v>
@@ -6261,7 +6261,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.310553728124483</v>
+        <v>1.295417391850492</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.272989747704326</v>
@@ -6350,7 +6350,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.319885491546321</v>
+        <v>1.300791705121748</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.354532968964148</v>
@@ -6439,7 +6439,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.334009922073811</v>
+        <v>1.313223541926646</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.33723487607142</v>
@@ -6528,7 +6528,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.320593056327319</v>
+        <v>1.297138694532141</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.325156320964725</v>
@@ -6617,7 +6617,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.338214287111133</v>
+        <v>1.31595537832523</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.375034013537791</v>
@@ -6706,7 +6706,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.336230963681032</v>
+        <v>1.312781666437225</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.166461098220619</v>
@@ -6795,7 +6795,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.33786210663136</v>
+        <v>1.31538189589489</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.24804984888096</v>
@@ -6884,7 +6884,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.343802301857356</v>
+        <v>1.313919645542722</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.247997650955559</v>
@@ -6973,7 +6973,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.319455492533787</v>
+        <v>1.293584949283221</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.18001269542478</v>
@@ -7062,7 +7062,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.336229544918517</v>
+        <v>1.307032222085893</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.310159389874443</v>
@@ -7151,7 +7151,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.324874157617096</v>
+        <v>1.293707283179537</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.193477062030167</v>
@@ -7240,7 +7240,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.327979519548308</v>
+        <v>1.293394367067477</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.013137330314734</v>
@@ -7329,7 +7329,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.344216390156991</v>
+        <v>1.310901205857776</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.223062527983388</v>
@@ -7418,7 +7418,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.328282239685625</v>
+        <v>1.301057256948748</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.299855201366406</v>
@@ -7507,7 +7507,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.351207435142851</v>
+        <v>1.318696238411187</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.239104354176018</v>
@@ -7596,7 +7596,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.332538288471881</v>
+        <v>1.303833902531801</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.26966695949824</v>
@@ -7882,7 +7882,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.493849235375367</v>
+        <v>1.463788862981865</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.033423819771501</v>
@@ -7971,7 +7971,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.517479163060557</v>
+        <v>1.476648029156129</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.142125595231725</v>
@@ -8060,7 +8060,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.462687044371816</v>
+        <v>1.432084925910628</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.904237875727562</v>
@@ -8149,7 +8149,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.446125220075724</v>
+        <v>1.419311882334381</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.953875537086778</v>
@@ -8238,7 +8238,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.441433871480743</v>
+        <v>1.410815204936856</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.914012424855868</v>
@@ -8327,7 +8327,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.4422174683451</v>
+        <v>1.415103302184455</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.970376854191256</v>
@@ -8416,7 +8416,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.450468646419744</v>
+        <v>1.42211524585636</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.903255075081103</v>
@@ -8505,7 +8505,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.444805537300235</v>
+        <v>1.418089685370202</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.948702014877905</v>
@@ -8594,7 +8594,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.455645686719486</v>
+        <v>1.42493509015915</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.890068371360184</v>
@@ -8683,7 +8683,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.453090673763192</v>
+        <v>1.427074793848534</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.891539110035827</v>
@@ -8772,7 +8772,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.459425888907133</v>
+        <v>1.430396925061706</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.915697546330018</v>
@@ -8861,7 +8861,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.456416055192417</v>
+        <v>1.426434103625863</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.90915959650491</v>
@@ -8950,7 +8950,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.46201845229389</v>
+        <v>1.433486694980062</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.889741738932893</v>
@@ -9039,7 +9039,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.466641466858959</v>
+        <v>1.434643154084908</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.921457454634377</v>
@@ -9128,7 +9128,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.461596223121796</v>
+        <v>1.434586532740203</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.90687721493515</v>
@@ -9217,7 +9217,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.446072312461688</v>
+        <v>1.420085342563169</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.955409312248918</v>
@@ -9306,7 +9306,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.471568835965194</v>
+        <v>1.442494175879795</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.817413761670241</v>
@@ -9395,7 +9395,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.512280785217136</v>
+        <v>1.476847017344254</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.296813252723692</v>
@@ -9484,7 +9484,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.511005102399322</v>
+        <v>1.472967925763856</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.723961168158456</v>
@@ -9573,7 +9573,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.516319056169482</v>
+        <v>1.476609489170884</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.803535320061327</v>
@@ -9662,7 +9662,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.522086990652417</v>
+        <v>1.482164167745825</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.862563450421669</v>
@@ -9751,7 +9751,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.524607985372917</v>
+        <v>1.490158458833246</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.938654947030825</v>
@@ -9840,7 +9840,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.518655593421403</v>
+        <v>1.485414444431208</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.003690595534874</v>
@@ -9929,7 +9929,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.502427666180857</v>
+        <v>1.473724431828442</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.931975917752051</v>
@@ -10018,7 +10018,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.518760314941894</v>
+        <v>1.486374119619212</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.639316149853776</v>
@@ -10107,7 +10107,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.512658175574475</v>
+        <v>1.482506113060914</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.652645125952099</v>
@@ -10196,7 +10196,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.516675894873596</v>
+        <v>1.487722233897198</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.876679081829472</v>
@@ -10285,7 +10285,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.499303876525928</v>
+        <v>1.466855787076251</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.698735077603939</v>
@@ -10374,7 +10374,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.484082242939831</v>
+        <v>1.456310897799296</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.763005486798069</v>
@@ -10463,7 +10463,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.484071804242366</v>
+        <v>1.451394922284882</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.940458296349485</v>
@@ -10552,7 +10552,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.500084559323118</v>
+        <v>1.467618593325571</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.947690845020853</v>
@@ -10641,7 +10641,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.496350527339946</v>
+        <v>1.458273873486173</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.731972620198987</v>
@@ -10730,7 +10730,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.511559539344611</v>
+        <v>1.470455615361895</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.509988052398286</v>
@@ -10819,7 +10819,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.5143504468761</v>
+        <v>1.462477010867672</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.810487389644798</v>
@@ -10908,7 +10908,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.496812199332113</v>
+        <v>1.444622481260035</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.827344301017423</v>
@@ -10997,7 +10997,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.49661979675378</v>
+        <v>1.445175739657525</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.848232125943935</v>
@@ -11086,7 +11086,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.476524693367623</v>
+        <v>1.424459205420334</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.565700889405647</v>
@@ -11175,7 +11175,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.455239949823113</v>
+        <v>1.398061963964675</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.282664094158946</v>
@@ -11264,7 +11264,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.363851299987732</v>
+        <v>1.323721814929029</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.7639243410211</v>
@@ -11353,7 +11353,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.34754746774767</v>
+        <v>1.311988624061676</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.800455205198817</v>
@@ -11442,7 +11442,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.349277024375807</v>
+        <v>1.312383844871546</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.771915717719956</v>
@@ -11531,7 +11531,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.352552109866216</v>
+        <v>1.314186605616533</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.756308827511292</v>
@@ -11817,7 +11817,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.62691744443354</v>
+        <v>1.57669517057093</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.385685476229175</v>
@@ -11906,7 +11906,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.64245816458095</v>
+        <v>1.590093656461133</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.073114483919734</v>
@@ -11995,7 +11995,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.647247343207989</v>
+        <v>1.597675099540923</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.330698888660367</v>
@@ -12084,7 +12084,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.664505436037956</v>
+        <v>1.613581281657307</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.574664702776855</v>
@@ -12173,7 +12173,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.661175945268182</v>
+        <v>1.610135866207704</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.555124495331908</v>
@@ -12262,7 +12262,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.658599454381099</v>
+        <v>1.605399380212601</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.577714495800041</v>
@@ -12351,7 +12351,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.666586534672596</v>
+        <v>1.601016770491895</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.428376798919905</v>
@@ -12440,7 +12440,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.678205821974557</v>
+        <v>1.605251369467102</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.605844472111493</v>
@@ -12529,7 +12529,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.674957418657362</v>
+        <v>1.593961224858004</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.68370120116846</v>
@@ -12618,7 +12618,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.653052474442164</v>
+        <v>1.571769630915413</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.304490285981543</v>
@@ -12707,7 +12707,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.665060880140656</v>
+        <v>1.57635064842431</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.255005392588779</v>
@@ -12796,7 +12796,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.662762462404155</v>
+        <v>1.573906893956112</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.272726024458975</v>
@@ -12885,7 +12885,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.662098799537197</v>
+        <v>1.577253078880748</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.30872295709251</v>
@@ -12974,7 +12974,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.661152430653554</v>
+        <v>1.575601326485981</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.244004038130138</v>
@@ -13063,7 +13063,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.656294306143177</v>
+        <v>1.566315251604874</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.295821170640941</v>
@@ -13152,7 +13152,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.651271692644396</v>
+        <v>1.571027190597446</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.291350681425793</v>
@@ -13241,7 +13241,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.649621851541038</v>
+        <v>1.566283704209665</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.300234386566599</v>
@@ -13330,7 +13330,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.650801332557033</v>
+        <v>1.554180896223026</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.347339295627194</v>
@@ -13419,7 +13419,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.640957273891379</v>
+        <v>1.546246219652831</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.37971029359247</v>
@@ -13508,7 +13508,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.632170656506757</v>
+        <v>1.536268301682166</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.37933400162089</v>
@@ -13597,7 +13597,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.628023420277288</v>
+        <v>1.534507277155233</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.367999361785724</v>
@@ -13686,7 +13686,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.629805499792585</v>
+        <v>1.53879134811442</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.315705885598679</v>
@@ -13775,7 +13775,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.612795756236538</v>
+        <v>1.528873104173538</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.419617837889012</v>
@@ -13864,7 +13864,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.606854052017022</v>
+        <v>1.528782049901684</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.34881165456317</v>
@@ -13953,7 +13953,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.623812564432256</v>
+        <v>1.54196894662686</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.019285338206916</v>
@@ -14042,7 +14042,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.617809376836588</v>
+        <v>1.543770031677636</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.209252386774383</v>
@@ -14131,7 +14131,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.631719203427044</v>
+        <v>1.550154209219993</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.173263553036206</v>
@@ -14220,7 +14220,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.632013867798883</v>
+        <v>1.543553183486773</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.106023965803553</v>
@@ -14309,7 +14309,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.621730811051334</v>
+        <v>1.533366433600314</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.545857623949967</v>
@@ -14398,7 +14398,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.610582429396342</v>
+        <v>1.522287204119196</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.541680999620373</v>
@@ -14487,7 +14487,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.613600657106206</v>
+        <v>1.519335127429807</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.211035224362547</v>
@@ -14576,7 +14576,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.615159141766624</v>
+        <v>1.52150785921638</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.469649805418275</v>
@@ -14665,7 +14665,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.612470733027813</v>
+        <v>1.525896401969296</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.44149610229914</v>
@@ -14754,7 +14754,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.602721485131946</v>
+        <v>1.509682871263627</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.184206364312562</v>
@@ -14843,7 +14843,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.592329683149604</v>
+        <v>1.501876199724778</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.86576004038633</v>
@@ -14932,7 +14932,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.597276754128826</v>
+        <v>1.499027368150529</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.200191101753727</v>
@@ -15021,7 +15021,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.591861814709972</v>
+        <v>1.491599699265397</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.021878224969144</v>
@@ -15110,7 +15110,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.594778917028083</v>
+        <v>1.50059383114319</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.17961496858604</v>
@@ -15199,7 +15199,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.601540577589614</v>
+        <v>1.505313838257544</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.225263641604878</v>
@@ -15288,7 +15288,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.597362853612083</v>
+        <v>1.507849045352418</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.297335699260452</v>
@@ -15377,7 +15377,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.592669945061783</v>
+        <v>1.502044276819521</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.080626724867053</v>
@@ -15466,7 +15466,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.585421693020972</v>
+        <v>1.50412407266117</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.069088129294093</v>
@@ -15752,7 +15752,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.647356921197817</v>
+        <v>1.603394182603792</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.400931852116067</v>
@@ -15841,7 +15841,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.647608896606632</v>
+        <v>1.602012991027343</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.835759076549411</v>
@@ -15930,7 +15930,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.651908674982858</v>
+        <v>1.603398339537868</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.226343948546621</v>
@@ -16019,7 +16019,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.660395225013445</v>
+        <v>1.610293708114953</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.446015291444411</v>
@@ -16108,7 +16108,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.655796449492894</v>
+        <v>1.596736008156917</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.444300432106286</v>
@@ -16197,7 +16197,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.661245166391973</v>
+        <v>1.59654256215304</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.665909599928838</v>
@@ -16286,7 +16286,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.66350902604284</v>
+        <v>1.586738735341179</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.550381524783905</v>
@@ -16375,7 +16375,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.664049844810103</v>
+        <v>1.578198874806559</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.624972222345608</v>
@@ -16464,7 +16464,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.658744148533922</v>
+        <v>1.567283009867774</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.280657114263308</v>
@@ -16553,7 +16553,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.654045012411</v>
+        <v>1.556169656993661</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.491964223245511</v>
@@ -16642,7 +16642,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.657933974987161</v>
+        <v>1.553331418879818</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.320447227087542</v>
@@ -16731,7 +16731,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.655841600094754</v>
+        <v>1.546870718814641</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.277403874022176</v>
@@ -16820,7 +16820,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.662051905277624</v>
+        <v>1.54223343890619</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.343174271033602</v>
@@ -16909,7 +16909,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.666789650158556</v>
+        <v>1.544834727560517</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.190718789434967</v>
@@ -16998,7 +16998,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.671038328096212</v>
+        <v>1.535820313585021</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.429203499350232</v>
@@ -17087,7 +17087,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.664650350806029</v>
+        <v>1.532402751208157</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.409379628903072</v>
@@ -17176,7 +17176,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.662942356510761</v>
+        <v>1.528669536164732</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.579283260979262</v>
@@ -17265,7 +17265,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.664828995397118</v>
+        <v>1.531233433995417</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.367276039071349</v>
@@ -17354,7 +17354,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.669769006051822</v>
+        <v>1.529704404502351</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.526111828776889</v>
@@ -17443,7 +17443,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.669579857774875</v>
+        <v>1.532916110362306</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.250055008049376</v>
@@ -17532,7 +17532,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.658290280452303</v>
+        <v>1.525782838949606</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.740024045455483</v>
@@ -17621,7 +17621,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.651069023551783</v>
+        <v>1.526066292553763</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.62763625768726</v>
@@ -17710,7 +17710,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.648858155306477</v>
+        <v>1.53425266617117</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.451786558366707</v>
@@ -17799,7 +17799,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.651786121985021</v>
+        <v>1.543971170371628</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.375283193869142</v>
@@ -17888,7 +17888,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.659144953467142</v>
+        <v>1.554160400072931</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.525989523577244</v>
@@ -17977,7 +17977,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.648003937595743</v>
+        <v>1.548044171439704</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.008006725808661</v>
@@ -18066,7 +18066,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.645998416282016</v>
+        <v>1.543861494980148</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.316848749477716</v>
@@ -18155,7 +18155,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.630840177234978</v>
+        <v>1.529284331446736</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.118872990440217</v>
@@ -18244,7 +18244,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.618093696576244</v>
+        <v>1.51561748249903</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.369397578380383</v>
@@ -18333,7 +18333,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.607598662325151</v>
+        <v>1.511892811446945</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.393766580337998</v>
@@ -18422,7 +18422,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.604465439512684</v>
+        <v>1.510392177037235</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.497859898724098</v>
@@ -18511,7 +18511,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.604450179357404</v>
+        <v>1.51051763298013</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.571006528179301</v>
@@ -18600,7 +18600,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.607197857964931</v>
+        <v>1.513374092234876</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.675583882109755</v>
@@ -18689,7 +18689,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.605012834657938</v>
+        <v>1.509409084325282</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.645756219287326</v>
@@ -18778,7 +18778,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.602067654264797</v>
+        <v>1.499708613362299</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.924408818767379</v>
@@ -18867,7 +18867,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.607315237495645</v>
+        <v>1.495470978040776</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.53738161454313</v>
@@ -18956,7 +18956,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.598475751865707</v>
+        <v>1.48459220668379</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.128835758064406</v>
@@ -19045,7 +19045,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.597092847815136</v>
+        <v>1.486205035785906</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.48813262484212</v>
@@ -19134,7 +19134,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.606652628792356</v>
+        <v>1.492194457934996</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.422048676267099</v>
@@ -19223,7 +19223,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.598532140282573</v>
+        <v>1.482429450920528</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.273570815405635</v>
@@ -19312,7 +19312,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.602644037321697</v>
+        <v>1.48547786169184</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.0869859320632</v>
@@ -19401,7 +19401,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.600829510069032</v>
+        <v>1.488580239222732</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.989256606446574</v>
@@ -19687,7 +19687,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.460764243258191</v>
+        <v>1.450416908147607</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.279275739272921</v>
@@ -19776,7 +19776,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.456640223720074</v>
+        <v>1.447180772008833</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.284169338447382</v>
@@ -19865,7 +19865,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.458426254943505</v>
+        <v>1.452549399510099</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.148068486009763</v>
@@ -19954,7 +19954,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.47379233997927</v>
+        <v>1.469468206587391</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.27335329608462</v>
@@ -20043,7 +20043,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.470260645742842</v>
+        <v>1.457437141478825</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.244628675726037</v>
@@ -20132,7 +20132,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.477683538096001</v>
+        <v>1.458737839352643</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.232565294037759</v>
@@ -20221,7 +20221,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.476892921355012</v>
+        <v>1.448922343757115</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.256040248603864</v>
@@ -20310,7 +20310,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.481630508689024</v>
+        <v>1.446892325694207</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.256160472290629</v>
@@ -20399,7 +20399,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.529156617979467</v>
+        <v>1.480022466336986</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.10033872539584</v>
@@ -20488,7 +20488,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.549159573379683</v>
+        <v>1.4973406232203</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.624601656136674</v>
@@ -20577,7 +20577,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.567538052876207</v>
+        <v>1.509377013334633</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.898137873582199</v>
@@ -20666,7 +20666,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.561420802742605</v>
+        <v>1.504899276601577</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.760280950520896</v>
@@ -20755,7 +20755,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.571777212933617</v>
+        <v>1.510225605319482</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.889289057957991</v>
@@ -20844,7 +20844,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.565322268506752</v>
+        <v>1.500132849840022</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.84964165944917</v>
@@ -20933,7 +20933,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.569896949153287</v>
+        <v>1.503288893991563</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.932755857632157</v>
@@ -21022,7 +21022,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.565334649988105</v>
+        <v>1.493509326310804</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.933568004632509</v>
@@ -21111,7 +21111,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.561106276093855</v>
+        <v>1.479862442518455</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.498186820394026</v>
@@ -21200,7 +21200,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.579551018550138</v>
+        <v>1.486962110179103</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.851329682091665</v>
@@ -21289,7 +21289,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.568615031655861</v>
+        <v>1.47491142922773</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.75345227905141</v>
@@ -21378,7 +21378,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.574164454763616</v>
+        <v>1.480547564393773</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.085157316200894</v>
@@ -21467,7 +21467,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.580260763522293</v>
+        <v>1.488588049237876</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.96533760012945</v>
@@ -21556,7 +21556,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.582007886275294</v>
+        <v>1.497443494594486</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.138363177066187</v>
@@ -21645,7 +21645,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.574422208690617</v>
+        <v>1.490867134235023</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.940827263834409</v>
@@ -21734,7 +21734,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.56914381280908</v>
+        <v>1.490749759751218</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.072465595349979</v>
@@ -21823,7 +21823,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.5715082800336</v>
+        <v>1.486797558357609</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.991727596793948</v>
@@ -21912,7 +21912,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.559075587272644</v>
+        <v>1.48077855192327</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.715645097367546</v>
@@ -22001,7 +22001,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.570792738747735</v>
+        <v>1.488180735854711</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.005742234218181</v>
@@ -22090,7 +22090,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.56562868368663</v>
+        <v>1.475093771159599</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.260606196507223</v>
@@ -22179,7 +22179,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.54635271523107</v>
+        <v>1.460150833290633</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.772661617604972</v>
@@ -22268,7 +22268,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.53796710683052</v>
+        <v>1.456787556557117</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.737892293775626</v>
@@ -22357,7 +22357,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.540104733117654</v>
+        <v>1.46224827030201</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.729774242201912</v>
@@ -22446,7 +22446,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.549139991629515</v>
+        <v>1.470985727784845</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.651540122392879</v>
@@ -22535,7 +22535,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.542561412568093</v>
+        <v>1.47238529282412</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.733698452399748</v>
@@ -22624,7 +22624,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.541831486708416</v>
+        <v>1.469249758599256</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.765362994217369</v>
@@ -22713,7 +22713,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.528680661583216</v>
+        <v>1.455299297199488</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.779126360419455</v>
@@ -22802,7 +22802,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.531735655476145</v>
+        <v>1.455370056416029</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.804159440002226</v>
@@ -22891,7 +22891,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.526889127392158</v>
+        <v>1.451847720541509</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.7405272137333</v>
@@ -22980,7 +22980,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.516558779254987</v>
+        <v>1.452182121662625</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.647893371937205</v>
@@ -23069,7 +23069,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.505746602731766</v>
+        <v>1.442045205711836</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.786934379500357</v>
@@ -23158,7 +23158,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.504717472829113</v>
+        <v>1.447419073123639</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.418988357565766</v>
@@ -23247,7 +23247,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.512296429837568</v>
+        <v>1.450263315944796</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.799690338892155</v>
@@ -23336,7 +23336,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.505249917032697</v>
+        <v>1.445319445638907</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.488006640815303</v>
@@ -23622,7 +23622,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.294229750530713</v>
+        <v>1.292560095375192</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.253481953911011</v>
@@ -23711,7 +23711,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.305129359658958</v>
+        <v>1.303819585729372</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.157674240908856</v>
@@ -23800,7 +23800,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.322721453086729</v>
+        <v>1.32196921925265</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.253600078983519</v>
@@ -23889,7 +23889,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.351586479141493</v>
+        <v>1.348404185437058</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.299731874045404</v>
@@ -23978,7 +23978,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.350116869004815</v>
+        <v>1.341377837102534</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.147948524011743</v>
@@ -24067,7 +24067,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.346526347554991</v>
+        <v>1.335905195471484</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.22132877903983</v>
@@ -24156,7 +24156,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.376742862635966</v>
+        <v>1.353553202562082</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.289775629304853</v>
@@ -24245,7 +24245,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.405289492685984</v>
+        <v>1.373995554769481</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.111343206400658</v>
@@ -24334,7 +24334,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.404003924977569</v>
+        <v>1.364524196968303</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.212274063804633</v>
@@ -24423,7 +24423,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.396979028992713</v>
+        <v>1.358223685697328</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.241383584373287</v>
@@ -24512,7 +24512,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.405575441988765</v>
+        <v>1.356225088758129</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.056884495758037</v>
@@ -24601,7 +24601,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.399121682506502</v>
+        <v>1.352704234394667</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.208739226361003</v>
@@ -24690,7 +24690,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.399642583235406</v>
+        <v>1.350105078785636</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.210229976122511</v>
@@ -24779,7 +24779,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.400505352231155</v>
+        <v>1.354378728918317</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.181249397773057</v>
@@ -24868,7 +24868,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.404516138531956</v>
+        <v>1.352656975392578</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.155009630763984</v>
@@ -24957,7 +24957,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.372025013202325</v>
+        <v>1.324276390420459</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.186464504873489</v>
@@ -25046,7 +25046,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.384770660780649</v>
+        <v>1.33121316317995</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.261331459801247</v>
@@ -25135,7 +25135,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.368525256352367</v>
+        <v>1.322784778063598</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.175095039799594</v>
@@ -25224,7 +25224,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.342632479849455</v>
+        <v>1.29974522314082</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.27533367248847</v>
@@ -25313,7 +25313,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.345198152289448</v>
+        <v>1.298330501204301</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.990569936431867</v>
@@ -25402,7 +25402,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.334356495740145</v>
+        <v>1.292703047062919</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.151281948004453</v>
@@ -25491,7 +25491,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.318170448266929</v>
+        <v>1.282217636598889</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.179130289210351</v>
@@ -25580,7 +25580,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.295588270108279</v>
+        <v>1.265323130165583</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.182579283029715</v>
@@ -25669,7 +25669,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.276478924466695</v>
+        <v>1.253928564042972</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.303438732454125</v>
@@ -25758,7 +25758,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.293711159567902</v>
+        <v>1.266255406892436</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.259859716421031</v>
@@ -25847,7 +25847,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.2737641041625</v>
+        <v>1.252783532366964</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.27361522646134</v>
@@ -25936,7 +25936,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.291167426373414</v>
+        <v>1.266925134567261</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.252165138805942</v>
@@ -26025,7 +26025,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.292086775420394</v>
+        <v>1.264852023195101</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.370794693088565</v>
@@ -26114,7 +26114,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.311194620914344</v>
+        <v>1.275691921152702</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.392553080719419</v>
@@ -26203,7 +26203,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.296095406044008</v>
+        <v>1.26058944665309</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.314779226828799</v>
@@ -26292,7 +26292,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.310841305044501</v>
+        <v>1.278980866933771</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.32955008218805</v>
@@ -26381,7 +26381,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.312445593737812</v>
+        <v>1.278233368424314</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.11937394921222</v>
@@ -26470,7 +26470,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.323651596937834</v>
+        <v>1.289317775654063</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.229747748593363</v>
@@ -26559,7 +26559,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.338308642054541</v>
+        <v>1.29830765707527</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.161289580481274</v>
@@ -26648,7 +26648,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.31368940424642</v>
+        <v>1.278902243535511</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.198934092365723</v>
@@ -26737,7 +26737,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.329884745684701</v>
+        <v>1.292783373034981</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.208185307212764</v>
@@ -26826,7 +26826,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.326887107333769</v>
+        <v>1.290281806428931</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.168900402015823</v>
@@ -26915,7 +26915,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.32373224133714</v>
+        <v>1.286209758614109</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.993804376944219</v>
@@ -27004,7 +27004,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.334289087270926</v>
+        <v>1.294941609646815</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.185998031237982</v>
@@ -27093,7 +27093,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.315732721709028</v>
+        <v>1.283065061450031</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.117713114243784</v>
@@ -27182,7 +27182,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.336270906025416</v>
+        <v>1.294422522159689</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.187844747409495</v>
@@ -27271,7 +27271,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.307829102758252</v>
+        <v>1.271251099804361</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.152028990488189</v>
